--- a/app/templates/template_横向.xlsx
+++ b/app/templates/template_横向.xlsx
@@ -128,7 +128,7 @@
 （万元）</t>
   </si>
   <si>
-    <t>{{project.project_code}}</t>
+    <t>{% for project in projects %}{{ project.project_code }}</t>
   </si>
   <si>
     <t>{{project.project_name}}</t>
@@ -152,7 +152,7 @@
     <t>{{project.public_consumption}}</t>
   </si>
   <si>
-    <t>{{project.system_money}}</t>
+    <t>{{ project.system_money }}{% endfor %}</t>
   </si>
   <si>
     <t>合  计</t>
@@ -929,7 +929,7 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -986,16 +986,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,13 +1376,13 @@
   <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="59.5454545454545" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="22.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -1522,7 +1539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" ht="42" spans="1:11">
       <c r="A8" s="23" t="s">
         <v>32</v>
       </c>
@@ -1531,45 +1548,45 @@
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="H2:K2"/>
@@ -1580,6 +1597,7 @@
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="H3:I4"/>
